--- a/doc/PBL 테스트케이스.xlsx
+++ b/doc/PBL 테스트케이스.xlsx
@@ -5,7 +5,7 @@
   <x:workbookPr date1904="0" showBorderUnselectedTables="1" filterPrivacy="0" promptedSolutions="0" showInkAnnotation="1" backupFile="0" saveExternalLinkValues="1" codeName="ThisWorkbook" hidePivotFieldList="0" allowRefreshQuery="0" publishItems="0" checkCompatibility="0" autoCompressPictures="1" refreshAllConnections="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chlwl\OneDrive\3학년2학기\팀플\고모프\고모프 PBL\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chlwl\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <x:bookViews>
@@ -19,225 +19,231 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="73">
+<x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="75">
+  <x:si>
+    <x:t>이메일 중복 / 회원가입 실패 -&gt; "이미 등록되어 있는 이메일입니다." 메시지 출력</x:t>
+  </x:si>
+  <x:si>
+    <x:t>프로필 사진 등록 완료 후 개인프로필 이동, 왼쪽상단에 변경 된 프로필 사진 표시</x:t>
+  </x:si>
+  <x:si>
+    <x:t>( username, hansung@naver.com, 12345, 20000101)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>null 체크 / 회원가입 실패 -&gt; "입력하지 않은 항목이 있습니다." 메시지 출력</x:t>
+  </x:si>
+  <x:si>
+    <x:t>null 체크 / 로그인 실패 -&gt; "이메일과 비밀번호를 입력해주세요." 메시지 출력</x:t>
+  </x:si>
+  <x:si>
+    <x:t>유저이름 중복 / 회원가입 실패 -&gt; "이미 있는 사용자 이름입니다." 메시지 출력</x:t>
+  </x:si>
+  <x:si>
+    <x:t>( hansung@naver.com, computer )</x:t>
+  </x:si>
+  <x:si>
+    <x:t>검색</x:t>
+  </x:si>
+  <x:si>
+    <x:t>로그인</x:t>
+  </x:si>
+  <x:si>
+    <x:t>댓글</x:t>
+  </x:si>
+  <x:si>
+    <x:t>알림</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">프로필 사진, 본인 게시글, 팔로워 수, 팔로잉 수, 게시글수 </x:t>
+  </x:si>
+  <x:si>
+    <x:t>( hansung@naver.com, ccomputer )</x:t>
+  </x:si>
+  <x:si>
+    <x:t>게시글 등록 불가 (게시글 내용 입력 화면으로 이동 불가)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>해당 텍스트를 유저네임에 포함하는 유저 표시 (자신 제외)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>게시글 좋아요 &amp; 댓글</x:t>
+  </x:si>
+  <x:si>
+    <x:t>해당 유저 프로필로 이동</x:t>
+  </x:si>
+  <x:si>
+    <x:t>( hansung, ccomputer )</x:t>
+  </x:si>
+  <x:si>
+    <x:t>(유저이름, 이메일, 비밀번호, 생년월일)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>(  ID,(이메일) PW(비밀번호) )</x:t>
+  </x:si>
+  <x:si>
+    <x:t>코멘트 텍스트 작성 후 게시 버튼 클릭</x:t>
+  </x:si>
+  <x:si>
+    <x:t>( hansung, computer )</x:t>
+  </x:si>
+  <x:si>
+    <x:t>이벤트(좋아요, 댓글, 팔로우) 발생</x:t>
+  </x:si>
+  <x:si>
+    <x:t>누군가가 자신의 프로필 팔로우 이벤트 발생</x:t>
+  </x:si>
+  <x:si>
+    <x:t>알림을 발생시킨 유저의 프로필(이미지, 이름)과 이벤트(좋아요, 댓글내용, 팔로우)내용 표시</x:t>
+  </x:si>
+  <x:si>
+    <x:t>이메일 형식 오류 / 회원가입 실패 -&gt; "이메일이 형식에 맞지 않습니다." 메시지 출력</x:t>
+  </x:si>
+  <x:si>
+    <x:t>아이디 입력 오류 / 로그인 실패 -&gt; "이메일이 형식에 맞지 않습니다." 메시지 출력</x:t>
+  </x:si>
+  <x:si>
+    <x:t>비밀번호 입력 오류 / 로그인 실패 -&gt; "비밀번호가 일치하지 않습니다." 메시지 출력</x:t>
+  </x:si>
   <x:si>
     <x:t>작성자 : 1871027 김동준, 2071477 박경민, 1771272 최진현</x:t>
   </x:si>
   <x:si>
+    <x:t>( username, hansung, 12345678!, 20000101 )</x:t>
+  </x:si>
+  <x:si>
+    <x:t>좋아요 아이콘 변경(빈 하트), 좋아요 수 감소</x:t>
+  </x:si>
+  <x:si>
+    <x:t>사진 1장 선택, 게시글 내용 입력(선택사항)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>본인 스스로에게 이벤트(좋아요, 댓글) 발생</x:t>
+  </x:si>
+  <x:si>
+    <x:t>좋아요 아이콘 변경(하트), 좋아요 수 증가</x:t>
+  </x:si>
+  <x:si>
+    <x:t>정상 입력 / 로그인 성공 -&gt; 메인화면 이동</x:t>
+  </x:si>
+  <x:si>
+    <x:t>하단에 게시자 프로필 및 코멘트 텍스트 표시</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">정상 입력 / 회원가입 완료 -&gt; 메인화면 이동 </x:t>
+  </x:si>
+  <x:si>
+    <x:t>(좋아요 x상태) 게시글 좋아요 아이콘 클릭</x:t>
+  </x:si>
+  <x:si>
+    <x:t>(좋아요 o상태) 게시글 좋아요 아이콘 클릭</x:t>
+  </x:si>
+  <x:si>
+    <x:t>업로드된 게시글 피드로 출력 (팔로우 된 목록만)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>하나라도 미입력</x:t>
+  </x:si>
+  <x:si>
+    <x:t>모든 유저 표시</x:t>
+  </x:si>
+  <x:si>
+    <x:t>게시글 댓글로 이동</x:t>
+  </x:si>
+  <x:si>
+    <x:t>개인프로필(타인)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>검색된 유저 클릭</x:t>
+  </x:si>
+  <x:si>
+    <x:t>검색칸에 텍스트 입력</x:t>
+  </x:si>
+  <x:si>
+    <x:t>개인프로필(본인)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>사진 &amp; 사진설명</x:t>
+  </x:si>
+  <x:si>
+    <x:t>팔로워 수 업데이트</x:t>
+  </x:si>
+  <x:si>
+    <x:t>팔로우 버튼 클릭</x:t>
+  </x:si>
+  <x:si>
+    <x:t>알림 발생하지 않음</x:t>
+  </x:si>
+  <x:si>
+    <x:t>댓글 아이콘 클릭</x:t>
+  </x:si>
+  <x:si>
+    <x:t>로그아웃 버튼 클릭</x:t>
+  </x:si>
+  <x:si>
+    <x:t>이벤트(좋아요, 댓글, 팔로우)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>게시글 표시 및 게시글 수 업데이트</x:t>
+  </x:si>
+  <x:si>
+    <x:t>로그아웃 후 로그인 화면 이동</x:t>
+  </x:si>
+  <x:si>
+    <x:t>게시글 등록 완료 후 메인화면 이동</x:t>
+  </x:si>
+  <x:si>
+    <x:t>( username, hansung@naver.com, 12345678!, 20000101 )</x:t>
+  </x:si>
+  <x:si>
+    <x:t>( computer, hansung@naver.com, 12345678!, 20000101 )</x:t>
+  </x:si>
+  <x:si>
+    <x:t>아이디, 비밀번호 입력 오류 / 로그인 실패 -&gt; "이메일이 형식에 맞지 않습니다." 메시지 출력</x:t>
+  </x:si>
+  <x:si>
     <x:t>비밀번호 형식 오류(6자 미만) / 회원가입 실패 -&gt; "비밀번호는 최소 6자리를 입력해야 합니다."</x:t>
   </x:si>
   <x:si>
     <x:t>------------------------- 유저 생성 이후 ---------------------</x:t>
   </x:si>
   <x:si>
-    <x:t>해당 유저 프로필로 이동</x:t>
-  </x:si>
-  <x:si>
-    <x:t>게시글 좋아요 &amp; 댓글</x:t>
-  </x:si>
-  <x:si>
-    <x:t>( hansung, computer )</x:t>
-  </x:si>
-  <x:si>
-    <x:t>( hansung, ccomputer )</x:t>
-  </x:si>
-  <x:si>
-    <x:t>(  ID,(이메일) PW(비밀번호) )</x:t>
-  </x:si>
-  <x:si>
-    <x:t>코멘트 텍스트 작성 후 게시 버튼 클릭</x:t>
-  </x:si>
-  <x:si>
-    <x:t>(유저이름, 이메일, 비밀번호, 생년월일)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>누군가가 자신의 프로필 팔로우 이벤트 발생</x:t>
-  </x:si>
-  <x:si>
-    <x:t>이벤트(좋아요, 댓글, 팔로우) 발생</x:t>
+    <x:t>프로필 수정 버튼 클릭 후 , 프로필 사진 1장 선택</x:t>
+  </x:si>
+  <x:si>
+    <x:t>해당 유저 팔로워 수 증가 및 본인 팔로잉 수 증가</x:t>
   </x:si>
   <x:si>
     <x:t>텍스트 미입력</x:t>
   </x:si>
   <x:si>
+    <x:t>게시글 업로드</x:t>
+  </x:si>
+  <x:si>
+    <x:t>테스트 입력</x:t>
+  </x:si>
+  <x:si>
+    <x:t>테스트이름</x:t>
+  </x:si>
+  <x:si>
+    <x:t>유저네임</x:t>
+  </x:si>
+  <x:si>
+    <x:t>회원가입</x:t>
+  </x:si>
+  <x:si>
+    <x:t>사진 미선택</x:t>
+  </x:si>
+  <x:si>
+    <x:t>게시물 업로드</x:t>
+  </x:si>
+  <x:si>
     <x:t>메인화면</x:t>
   </x:si>
   <x:si>
-    <x:t>유저네임</x:t>
-  </x:si>
-  <x:si>
-    <x:t>회원가입</x:t>
-  </x:si>
-  <x:si>
-    <x:t>게시물 업로드</x:t>
-  </x:si>
-  <x:si>
     <x:t>예상결과</x:t>
   </x:si>
   <x:si>
-    <x:t>사진 미선택</x:t>
-  </x:si>
-  <x:si>
-    <x:t>게시글 업로드</x:t>
-  </x:si>
-  <x:si>
-    <x:t>테스트 입력</x:t>
-  </x:si>
-  <x:si>
-    <x:t>테스트이름</x:t>
-  </x:si>
-  <x:si>
-    <x:t>로그인</x:t>
-  </x:si>
-  <x:si>
-    <x:t>검색</x:t>
-  </x:si>
-  <x:si>
-    <x:t>댓글</x:t>
-  </x:si>
-  <x:si>
-    <x:t>알림</x:t>
-  </x:si>
-  <x:si>
-    <x:t>검색칸에 텍스트 입력</x:t>
-  </x:si>
-  <x:si>
-    <x:t>팔로워 수 업데이트</x:t>
-  </x:si>
-  <x:si>
-    <x:t>팔로우 버튼 클릭</x:t>
-  </x:si>
-  <x:si>
-    <x:t>개인프로필(본인)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>하나라도 미입력</x:t>
-  </x:si>
-  <x:si>
-    <x:t>게시글 댓글로 이동</x:t>
-  </x:si>
-  <x:si>
-    <x:t>알림 발생하지 않음</x:t>
-  </x:si>
-  <x:si>
-    <x:t>로그아웃 버튼 클릭</x:t>
-  </x:si>
-  <x:si>
-    <x:t>개인프로필(타인)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>댓글 아이콘 클릭</x:t>
-  </x:si>
-  <x:si>
-    <x:t>모든 유저 표시</x:t>
-  </x:si>
-  <x:si>
-    <x:t>사진 &amp; 사진설명</x:t>
-  </x:si>
-  <x:si>
-    <x:t>검색된 유저 클릭</x:t>
-  </x:si>
-  <x:si>
-    <x:t>알림을 발생시킨 유저의 프로필(이미지, 이름)과 이벤트(좋아요, 댓글내용, 팔로우)내용 표시</x:t>
-  </x:si>
-  <x:si>
-    <x:t>비밀번호 입력 오류 / 로그인 실패 -&gt; "비밀번호가 일치하지 않습니다." 메시지 출력</x:t>
-  </x:si>
-  <x:si>
-    <x:t>이메일 형식 오류 / 회원가입 실패 -&gt; "이메일이 형식에 맞지 않습니다." 메시지 출력</x:t>
-  </x:si>
-  <x:si>
-    <x:t>아이디 입력 오류 / 로그인 실패 -&gt; "이메일이 형식에 맞지 않습니다." 메시지 출력</x:t>
-  </x:si>
-  <x:si>
-    <x:t>( username, hansung, 12345678!, 20000101 )</x:t>
-  </x:si>
-  <x:si>
-    <x:t>아이디, 비밀번호 입력 오류 / 로그인 실패 -&gt; "이메일이 형식에 맞지 않습니다." 메시지 출력</x:t>
-  </x:si>
-  <x:si>
-    <x:t>( username, hansung@naver.com, 12345678!, 20000101 )</x:t>
-  </x:si>
-  <x:si>
-    <x:t>( computer, hansung@naver.com, 12345678!, 20000101 )</x:t>
-  </x:si>
-  <x:si>
-    <x:t>( hansung@naver.com, computer )</x:t>
-  </x:si>
-  <x:si>
-    <x:t>프로필 수정 버튼 클릭 후 , 프로필 사진 1장 선택</x:t>
-  </x:si>
-  <x:si>
-    <x:t>해당 유저 팔로워 수 증가 및 본인 팔로잉 수 증가</x:t>
-  </x:si>
-  <x:si>
-    <x:t>해당 텍스트를 유저네임에 포함하는 유저 표시 (자신 제외)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>게시글 등록 불가 (게시글 내용 입력 화면으로 이동 불가)</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">프로필 사진, 본인 게시글, 팔로워 수, 팔로잉 수, 게시글수 </x:t>
-  </x:si>
-  <x:si>
-    <x:t>( hansung@naver.com, ccomputer )</x:t>
-  </x:si>
-  <x:si>
-    <x:t>이메일 중복 / 회원가입 실패 -&gt; "이미 등록되어 있는 이메일입니다." 메시지 출력</x:t>
-  </x:si>
-  <x:si>
-    <x:t>프로필 사진 등록 완료 후 개인프로필 이동, 왼쪽상단에 변경 된 프로필 사진 표시</x:t>
-  </x:si>
-  <x:si>
-    <x:t>( username, hansung@naver.com, 12345, 20000101)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>null 체크 / 회원가입 실패 -&gt; "입력하지 않은 항목이 있습니다." 메시지 출력</x:t>
-  </x:si>
-  <x:si>
-    <x:t>null 체크 / 로그인 실패 -&gt; "이메일과 비밀번호를 입력해주세요." 메시지 출력</x:t>
-  </x:si>
-  <x:si>
-    <x:t>유저이름 중복 / 회원가입 실패 -&gt; "이미 있는 사용자 이름입니다." 메시지 출력</x:t>
-  </x:si>
-  <x:si>
-    <x:t>게시글 등록 완료 후 메인화면 이동</x:t>
-  </x:si>
-  <x:si>
-    <x:t>게시글 표시 및 게시글 수 업데이트</x:t>
-  </x:si>
-  <x:si>
-    <x:t>로그아웃 후 로그인 화면 이동</x:t>
-  </x:si>
-  <x:si>
-    <x:t>이벤트(좋아요, 댓글, 팔로우)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>(좋아요 o상태) 게시글 좋아요 아이콘 클릭</x:t>
-  </x:si>
-  <x:si>
-    <x:t>정상 입력 / 로그인 성공 -&gt; 메인화면 이동</x:t>
-  </x:si>
-  <x:si>
-    <x:t>(좋아요 x상태) 게시글 좋아요 아이콘 클릭</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">정상 입력 / 회원가입 완료 -&gt; 메인화면 이동 </x:t>
-  </x:si>
-  <x:si>
-    <x:t>본인 스스로에게 이벤트(좋아요, 댓글) 발생</x:t>
-  </x:si>
-  <x:si>
-    <x:t>사진 1장 선택, 게시글 내용 입력(선택사항)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>좋아요 아이콘 변경(하트), 좋아요 수 증가</x:t>
-  </x:si>
-  <x:si>
-    <x:t>하단에 게시자 프로필 및 코멘트 텍스트 표시</x:t>
-  </x:si>
-  <x:si>
-    <x:t>좋아요 아이콘 변경(빈 하트), 좋아요 수 감소</x:t>
+    <x:t>게시글 출력</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -295,6 +301,10 @@
           <hs:underlineShape val="solid"/>
           <hs:underlineType val="1"/>
           <hs:underlineColor rgb="ff0563c1"/>
+          <hs:size val="100"/>
+          <hs:ratio val="100"/>
+          <hs:spacing val="0"/>
+          <hs:offset val="0"/>
         </x:font>
       </mc:Choice>
       <mc:Fallback>
@@ -306,12 +316,28 @@
         </x:font>
       </mc:Fallback>
     </mc:AlternateContent>
-    <x:font>
-      <x:name val="맑은 고딕"/>
-      <x:sz val="11"/>
-      <x:color rgb="ff000000"/>
-      <x:b val="1"/>
-    </x:font>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:font hs:extension="1">
+          <x:name val="맑은 고딕"/>
+          <x:sz val="11"/>
+          <x:color rgb="ff000000"/>
+          <x:b val="1"/>
+          <hs:size val="100"/>
+          <hs:ratio val="100"/>
+          <hs:spacing val="0"/>
+          <hs:offset val="0"/>
+        </x:font>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:font>
+          <x:name val="맑은 고딕"/>
+          <x:sz val="11"/>
+          <x:color rgb="ff000000"/>
+          <x:b val="1"/>
+        </x:font>
+      </mc:Fallback>
+    </mc:AlternateContent>
   </x:fonts>
   <x:fills count="7">
     <x:fill>
@@ -1449,8 +1475,8 @@
   <x:sheetPr codeName="Sheet1"/>
   <x:dimension ref="A1:D48"/>
   <x:sheetViews>
-    <x:sheetView tabSelected="1" topLeftCell="A1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <x:selection activeCell="E48" activeCellId="0" sqref="E48:E48"/>
+    <x:sheetView tabSelected="1" topLeftCell="A29" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <x:selection activeCell="D35" activeCellId="0" sqref="D35:D35"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="12.62890625" defaultRowHeight="15.75" customHeight="1"/>
@@ -1466,21 +1492,21 @@
   <x:sheetData>
     <x:row r="1" spans="1:3" ht="16.399999999999999">
       <x:c r="A1" s="3" t="s">
-        <x:v>21</x:v>
+        <x:v>67</x:v>
       </x:c>
       <x:c r="B1" s="3" t="s">
-        <x:v>20</x:v>
+        <x:v>66</x:v>
       </x:c>
       <x:c r="C1" s="3" t="s">
-        <x:v>17</x:v>
+        <x:v>73</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:4" ht="16.399999999999999">
       <x:c r="A2" s="23" t="s">
-        <x:v>22</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="B2" s="6" t="s">
-        <x:v>7</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="C2" s="7"/>
       <x:c r="D2" s="4"/>
@@ -1488,50 +1514,50 @@
     <x:row r="3" spans="1:4" ht="16.399999999999999">
       <x:c r="A3" s="8"/>
       <x:c r="B3" s="9" t="s">
-        <x:v>47</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="C3" s="10" t="s">
-        <x:v>65</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="D3" s="4"/>
     </x:row>
     <x:row r="4" spans="1:4" ht="16.399999999999999">
       <x:c r="A4" s="8"/>
       <x:c r="B4" s="9" t="s">
-        <x:v>5</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="C4" s="10" t="s">
-        <x:v>42</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="D4" s="4"/>
     </x:row>
     <x:row r="5" spans="1:4" ht="16.399999999999999">
       <x:c r="A5" s="8"/>
       <x:c r="B5" s="9" t="s">
-        <x:v>53</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="C5" s="10" t="s">
-        <x:v>40</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="D5" s="4"/>
     </x:row>
     <x:row r="6" spans="1:4" ht="16.399999999999999">
       <x:c r="A6" s="8"/>
       <x:c r="B6" s="9" t="s">
-        <x:v>6</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="C6" s="10" t="s">
-        <x:v>44</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="D6" s="4"/>
     </x:row>
     <x:row r="7" spans="1:4" ht="16.399999999999999">
       <x:c r="A7" s="19"/>
       <x:c r="B7" s="9" t="s">
-        <x:v>30</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="C7" s="10" t="s">
-        <x:v>58</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="D7" s="4"/>
     </x:row>
@@ -1543,10 +1569,10 @@
     </x:row>
     <x:row r="9" spans="1:4" ht="16.399999999999999">
       <x:c r="A9" s="24" t="s">
-        <x:v>15</x:v>
+        <x:v>69</x:v>
       </x:c>
       <x:c r="B9" s="15" t="s">
-        <x:v>9</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="C9" s="16"/>
       <x:c r="D9" s="4"/>
@@ -1554,37 +1580,37 @@
     <x:row r="10" spans="1:4" ht="16.399999999999999">
       <x:c r="A10" s="12"/>
       <x:c r="B10" s="9" t="s">
-        <x:v>43</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="C10" s="10" t="s">
-        <x:v>41</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="D10" s="4"/>
     </x:row>
     <x:row r="11" spans="1:4" ht="16.399999999999999">
       <x:c r="A11" s="13"/>
       <x:c r="B11" s="9" t="s">
-        <x:v>56</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="C11" s="10" t="s">
-        <x:v>1</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="D11" s="4"/>
     </x:row>
     <x:row r="12" spans="1:4" ht="16.399999999999999">
       <x:c r="A12" s="13"/>
       <x:c r="B12" s="9" t="s">
-        <x:v>45</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="C12" s="10" t="s">
-        <x:v>67</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="D12" s="4"/>
     </x:row>
     <x:row r="13" spans="1:4" ht="16.399999999999999">
       <x:c r="A13" s="13"/>
       <x:c r="B13" s="9" t="s">
-        <x:v>2</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="C13" s="10"/>
       <x:c r="D13" s="4"/>
@@ -1592,30 +1618,30 @@
     <x:row r="14" spans="1:4" ht="16.399999999999999">
       <x:c r="A14" s="13"/>
       <x:c r="B14" s="9" t="s">
-        <x:v>45</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="C14" s="10" t="s">
-        <x:v>59</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="D14" s="4"/>
     </x:row>
     <x:row r="15" spans="1:4" ht="16.399999999999999">
       <x:c r="A15" s="13"/>
       <x:c r="B15" s="9" t="s">
-        <x:v>46</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="C15" s="10" t="s">
-        <x:v>54</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="D15" s="4"/>
     </x:row>
     <x:row r="16" spans="1:4" ht="16.399999999999999">
       <x:c r="A16" s="20"/>
       <x:c r="B16" s="9" t="s">
-        <x:v>30</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="C16" s="10" t="s">
-        <x:v>57</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="D16" s="4"/>
     </x:row>
@@ -1627,10 +1653,10 @@
     </x:row>
     <x:row r="18" spans="1:4" ht="16.399999999999999">
       <x:c r="A18" s="24" t="s">
-        <x:v>16</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="B18" s="15" t="s">
-        <x:v>37</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="C18" s="16"/>
       <x:c r="D18" s="4"/>
@@ -1638,20 +1664,20 @@
     <x:row r="19" spans="1:4" ht="16.399999999999999">
       <x:c r="A19" s="12"/>
       <x:c r="B19" s="26" t="s">
-        <x:v>69</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="C19" s="27" t="s">
-        <x:v>60</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="D19" s="4"/>
     </x:row>
     <x:row r="20" spans="1:4" ht="16.399999999999999">
       <x:c r="A20" s="32"/>
       <x:c r="B20" s="33" t="s">
-        <x:v>18</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="C20" s="34" t="s">
-        <x:v>51</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D20" s="4"/>
     </x:row>
@@ -1663,10 +1689,10 @@
     </x:row>
     <x:row r="22" spans="1:4" ht="16.399999999999999">
       <x:c r="A22" s="29" t="s">
-        <x:v>29</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="B22" s="17" t="s">
-        <x:v>52</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="C22" s="18"/>
       <x:c r="D22" s="4"/>
@@ -1674,40 +1700,40 @@
     <x:row r="23" spans="1:4" ht="16.399999999999999">
       <x:c r="A23" s="12"/>
       <x:c r="B23" s="9" t="s">
-        <x:v>48</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="C23" s="10" t="s">
-        <x:v>55</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="D23" s="4"/>
     </x:row>
     <x:row r="24" spans="1:4" ht="16.399999999999999">
       <x:c r="A24" s="13"/>
       <x:c r="B24" s="9" t="s">
-        <x:v>33</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="C24" s="10" t="s">
-        <x:v>62</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="D24" s="4"/>
     </x:row>
     <x:row r="25" spans="1:4" ht="16.399999999999999">
       <x:c r="A25" s="14"/>
       <x:c r="B25" s="9" t="s">
-        <x:v>19</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="C25" s="10" t="s">
-        <x:v>61</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="D25" s="4"/>
     </x:row>
     <x:row r="26" spans="1:4" ht="16.399999999999999">
       <x:c r="A26" s="21"/>
       <x:c r="B26" s="9" t="s">
-        <x:v>10</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="C26" s="10" t="s">
-        <x:v>27</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="D26" s="4"/>
     </x:row>
@@ -1719,20 +1745,20 @@
     </x:row>
     <x:row r="28" spans="1:3" ht="16.399999999999999">
       <x:c r="A28" s="24" t="s">
-        <x:v>34</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="B28" s="17" t="s">
-        <x:v>52</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="C28" s="18"/>
     </x:row>
     <x:row r="29" spans="1:3" ht="16.399999999999999">
       <x:c r="A29" s="5"/>
       <x:c r="B29" s="11" t="s">
-        <x:v>28</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="C29" s="10" t="s">
-        <x:v>49</x:v>
+        <x:v>63</x:v>
       </x:c>
     </x:row>
     <x:row r="30" spans="1:3" ht="13.199999999999999">
@@ -1742,10 +1768,10 @@
     </x:row>
     <x:row r="31" spans="1:4" ht="16.399999999999999">
       <x:c r="A31" s="24" t="s">
-        <x:v>13</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="B31" s="17" t="s">
-        <x:v>4</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="C31" s="18"/>
       <x:c r="D31" s="4"/>
@@ -1753,118 +1779,127 @@
     <x:row r="32" spans="1:3" ht="16.399999999999999">
       <x:c r="A32" s="12"/>
       <x:c r="B32" s="9" t="s">
-        <x:v>66</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="C32" s="10" t="s">
-        <x:v>70</x:v>
+        <x:v>33</x:v>
       </x:c>
     </x:row>
     <x:row r="33" spans="1:3" ht="16.399999999999999">
       <x:c r="A33" s="28"/>
       <x:c r="B33" s="37" t="s">
-        <x:v>64</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="C33" s="27" t="s">
-        <x:v>72</x:v>
+        <x:v>30</x:v>
       </x:c>
     </x:row>
     <x:row r="34" spans="1:3" ht="13.199999999999999">
       <x:c r="A34" s="36"/>
       <x:c r="B34" s="38" t="s">
+        <x:v>51</x:v>
+      </x:c>
+      <x:c r="C34" s="35" t="s">
+        <x:v>42</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="35" spans="1:3" ht="13.199999999999999">
+      <x:c r="A35" s="38"/>
+      <x:c r="B35" s="38" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="C35" s="38" t="s">
+        <x:v>74</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="36" ht="13.199999999999999"/>
+    <x:row r="37" spans="1:3" ht="16.399999999999999">
+      <x:c r="A37" s="25" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="B37" s="16" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="C37" s="16" t="s">
         <x:v>35</x:v>
       </x:c>
-      <x:c r="C34" s="35" t="s">
-        <x:v>31</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="35" ht="13.199999999999999"/>
-    <x:row r="36" spans="1:3" ht="16.399999999999999">
-      <x:c r="A36" s="25" t="s">
+    </x:row>
+    <x:row r="38" spans="1:3" customHeight="1">
+      <x:c r="A38" s="22"/>
+      <x:c r="B38" s="22"/>
+      <x:c r="C38" s="22"/>
+    </x:row>
+    <x:row r="39" spans="1:3" customHeight="1">
+      <x:c r="A39" s="25" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="B39" s="15" t="s">
+        <x:v>68</x:v>
+      </x:c>
+      <x:c r="C39" s="16"/>
+    </x:row>
+    <x:row r="40" spans="1:3" customHeight="1">
+      <x:c r="A40" s="12"/>
+      <x:c r="B40" s="9" t="s">
+        <x:v>45</x:v>
+      </x:c>
+      <x:c r="C40" s="10" t="s">
+        <x:v>14</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="41" spans="1:3" customHeight="1">
+      <x:c r="A41" s="13"/>
+      <x:c r="B41" s="9" t="s">
+        <x:v>44</x:v>
+      </x:c>
+      <x:c r="C41" s="10" t="s">
+        <x:v>16</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="42" spans="1:3" customHeight="1">
+      <x:c r="A42" s="20"/>
+      <x:c r="B42" s="9" t="s">
+        <x:v>64</x:v>
+      </x:c>
+      <x:c r="C42" s="10" t="s">
+        <x:v>41</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="43" spans="1:3" customHeight="1">
+      <x:c r="A43" s="22"/>
+      <x:c r="B43" s="22"/>
+      <x:c r="C43" s="22"/>
+    </x:row>
+    <x:row r="44" spans="1:3" customHeight="1">
+      <x:c r="A44" s="24" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="B44" s="15" t="s">
+        <x:v>53</x:v>
+      </x:c>
+      <x:c r="C44" s="16"/>
+    </x:row>
+    <x:row r="45" spans="1:3" customHeight="1">
+      <x:c r="A45" s="12"/>
+      <x:c r="B45" s="9" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="C45" s="10" t="s">
         <x:v>24</x:v>
       </x:c>
-      <x:c r="B36" s="16" t="s">
-        <x:v>8</x:v>
-      </x:c>
-      <x:c r="C36" s="16" t="s">
-        <x:v>71</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="37" spans="1:3" ht="13.199999999999999">
-      <x:c r="A37" s="22"/>
-      <x:c r="B37" s="22"/>
-      <x:c r="C37" s="22"/>
-    </x:row>
-    <x:row r="38" spans="1:3" customHeight="1">
-      <x:c r="A38" s="25" t="s">
-        <x:v>23</x:v>
-      </x:c>
-      <x:c r="B38" s="15" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="C38" s="16"/>
-    </x:row>
-    <x:row r="39" spans="1:3" customHeight="1">
-      <x:c r="A39" s="12"/>
-      <x:c r="B39" s="9" t="s">
-        <x:v>26</x:v>
-      </x:c>
-      <x:c r="C39" s="10" t="s">
+    </x:row>
+    <x:row r="46" spans="1:3" customHeight="1">
+      <x:c r="A46" s="20"/>
+      <x:c r="B46" s="9" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="C46" s="10" t="s">
         <x:v>50</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="40" spans="1:3" customHeight="1">
-      <x:c r="A40" s="13"/>
-      <x:c r="B40" s="9" t="s">
-        <x:v>38</x:v>
-      </x:c>
-      <x:c r="C40" s="10" t="s">
-        <x:v>3</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="41" spans="1:3" customHeight="1">
-      <x:c r="A41" s="20"/>
-      <x:c r="B41" s="9" t="s">
-        <x:v>12</x:v>
-      </x:c>
-      <x:c r="C41" s="10" t="s">
-        <x:v>36</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="42" spans="1:3" customHeight="1">
-      <x:c r="A42" s="22"/>
-      <x:c r="B42" s="22"/>
-      <x:c r="C42" s="22"/>
-    </x:row>
-    <x:row r="43" spans="1:3" customHeight="1">
-      <x:c r="A43" s="24" t="s">
-        <x:v>25</x:v>
-      </x:c>
-      <x:c r="B43" s="15" t="s">
-        <x:v>63</x:v>
-      </x:c>
-      <x:c r="C43" s="16"/>
-    </x:row>
-    <x:row r="44" spans="1:3" customHeight="1">
-      <x:c r="A44" s="12"/>
-      <x:c r="B44" s="9" t="s">
-        <x:v>11</x:v>
-      </x:c>
-      <x:c r="C44" s="10" t="s">
-        <x:v>39</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="45" spans="1:3" customHeight="1">
-      <x:c r="A45" s="20"/>
-      <x:c r="B45" s="9" t="s">
-        <x:v>68</x:v>
-      </x:c>
-      <x:c r="C45" s="10" t="s">
-        <x:v>32</x:v>
       </x:c>
     </x:row>
     <x:row r="47" spans="3:3" customHeight="1">
       <x:c r="C47" s="39" t="s">
-        <x:v>0</x:v>
+        <x:v>28</x:v>
       </x:c>
     </x:row>
     <x:row r="48" spans="1:1" customHeight="1">
